--- a/Оптимизация.xlsx
+++ b/Оптимизация.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openserver\domains\Laraveltest\Оптимизация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openserver\domains\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E728E6-51E7-4191-AFF7-F0D221379ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A357A-14F2-4C92-AC83-F54DC19C0F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ключевые слова" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="235">
   <si>
     <t>Клининг</t>
   </si>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E3EA24-92FF-4B2C-ACC5-A778C27D65E1}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" activeCellId="4" sqref="A49 A48 A51 A54 A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654AD926-3E91-4873-9C9F-357007C3EAA9}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4103,12 +4103,45 @@
         <v>58</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A24"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A33:A62"/>
     <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Оптимизация.xlsx
+++ b/Оптимизация.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openserver\domains\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A357A-14F2-4C92-AC83-F54DC19C0F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6D8295-B6C9-4F53-9CD2-7BB47CA46FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="235">
   <si>
     <t>Клининг</t>
   </si>
@@ -3693,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654AD926-3E91-4873-9C9F-357007C3EAA9}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,441 +3707,317 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+      <c r="B6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>50</v>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>51</v>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>53</v>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>54</v>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>55</v>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" t="s">
-        <v>57</v>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>58</v>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" t="s">
-        <v>59</v>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>60</v>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>61</v>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" t="s">
-        <v>4</v>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
+      <c r="B28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1" t="s">
-        <v>18</v>
+      <c r="A39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="1" t="s">
-        <v>19</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="1" t="s">
-        <v>22</v>
+      <c r="B41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="1" t="s">
-        <v>26</v>
+      <c r="B42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1" t="s">
-        <v>32</v>
+      <c r="B43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1" t="s">
-        <v>33</v>
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="1" t="s">
-        <v>37</v>
+      <c r="B46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
+      <c r="B47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="1" t="s">
-        <v>43</v>
+      <c r="B48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1" t="s">
-        <v>47</v>
+      <c r="B52" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A24"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A33:A62"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A74"/>
+  <mergeCells count="3">
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A1:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
